--- a/data/trans_bre/P16A10-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A10-Edad-trans_bre.xlsx
@@ -664,10 +664,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3323196625604422</v>
+        <v>-0.4645267577280374</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.4253138641362969</v>
+        <v>-0.4289675179866354</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
@@ -688,16 +688,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7996527323485858</v>
+        <v>0.6285157901834346</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6997897712967742</v>
+        <v>0.7024028758957569</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.273743493962858</v>
+        <v>1.513115761578473</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.714986896475245</v>
+        <v>4.165725605912234</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -750,20 +750,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.2063635361855523</v>
+        <v>-0.2449707055031925</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.498923488872915</v>
+        <v>-1.421008139971347</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.3918788350089006</v>
+        <v>-0.4133937026520153</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
-      <c r="I8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
@@ -774,16 +776,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8813927742799531</v>
+        <v>0.7511746564536156</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1554436606602701</v>
+        <v>0.1544442693722355</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.721516886167148</v>
+        <v>1.706249730669446</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.378904236965224</v>
+        <v>1.449064520148521</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
@@ -811,7 +813,7 @@
         <v>0.5658799100275825</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.09052463439997915</v>
+        <v>0.09052463439997932</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5411966571816497</v>
@@ -823,7 +825,7 @@
         <v>1.940679672109058</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1479985328588905</v>
+        <v>0.1479985328588908</v>
       </c>
     </row>
     <row r="11">
@@ -834,28 +836,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5882800928219865</v>
+        <v>-0.5508260658946965</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.4284515441272078</v>
+        <v>-0.3660495668810749</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.1397364201128281</v>
+        <v>-0.1441215647520857</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9162487784869361</v>
+        <v>-0.8906961791573518</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6335481188761682</v>
+        <v>-0.632075872232437</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5504100293518657</v>
+        <v>-0.450895521124818</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6882634935569817</v>
+        <v>-0.6658790205669971</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.791561800079162</v>
+        <v>-0.7894251101293422</v>
       </c>
     </row>
     <row r="12">
@@ -866,27 +868,25 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.525263676012959</v>
+        <v>1.442537337448357</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.836506104075963</v>
+        <v>1.881277889004502</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.3079139340693</v>
+        <v>1.471679761039554</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8376354697592024</v>
+        <v>0.9728789383672738</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>5.477014180925321</v>
+        <v>4.362925619144575</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>5.411582537137604</v>
+        <v>6.923412407907611</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
-      <c r="J12" s="6" t="n">
-        <v>5.59698988970508</v>
-      </c>
+      <c r="J12" s="6" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -909,7 +909,7 @@
         <v>-0.7670343197827543</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-2.358234226939659</v>
+        <v>-2.358234226939658</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3550718610266915</v>
@@ -921,7 +921,7 @@
         <v>-0.2535439122051181</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.5982887830599818</v>
+        <v>-0.5982887830599817</v>
       </c>
     </row>
     <row r="14">
@@ -932,28 +932,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.085570433333509</v>
+        <v>-0.9994195417752476</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.602269846368511</v>
+        <v>-2.691620403537335</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.600547806831934</v>
+        <v>-2.611493014530653</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.185366673627208</v>
+        <v>-4.189187513678445</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3470596097490508</v>
+        <v>-0.3158417623647091</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7857173918535996</v>
+        <v>-0.8136261161515245</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6547911010283648</v>
+        <v>-0.649105405027136</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8018265613025836</v>
+        <v>-0.7912166822529964</v>
       </c>
     </row>
     <row r="15">
@@ -964,28 +964,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.003631416800276</v>
+        <v>3.319466864600731</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5410581697305665</v>
+        <v>0.4877301394512671</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9356179546992844</v>
+        <v>1.02412823154803</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.8066484957005129</v>
+        <v>-0.7650756246180915</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.111701619085282</v>
+        <v>2.15925585454051</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5702159668896774</v>
+        <v>0.4781808858618602</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5939666983051949</v>
+        <v>0.602946075075057</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2281822559448337</v>
+        <v>-0.2608342936561875</v>
       </c>
     </row>
     <row r="16">
@@ -1009,7 +1009,7 @@
         <v>-7.744727185556813</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-3.039577374153065</v>
+        <v>-3.039577374153063</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.4492231488384112</v>
@@ -1021,7 +1021,7 @@
         <v>-0.728103888368925</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.40051118038339</v>
+        <v>-0.4005111803833898</v>
       </c>
     </row>
     <row r="17">
@@ -1032,28 +1032,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-8.972654643253987</v>
+        <v>-9.165234601420597</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.721590868611667</v>
+        <v>-5.981671660688584</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-11.32327164115966</v>
+        <v>-11.66519179785232</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.66904582625496</v>
+        <v>-5.368750246174786</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.671374096783088</v>
+        <v>-0.6807996636762091</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.5660589839756383</v>
+        <v>-0.5758059863639295</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.8556833991925853</v>
+        <v>-0.8610321650957647</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5966647156149303</v>
+        <v>-0.5961826118888552</v>
       </c>
     </row>
     <row r="18">
@@ -1064,28 +1064,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.062778670229807</v>
+        <v>-1.148762394509278</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.248576254151135</v>
+        <v>1.029546638248855</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-4.463585420080844</v>
+        <v>-4.609063432753754</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.8509622374992352</v>
+        <v>-0.6488724048862692</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.1216103165770663</v>
+        <v>-0.1233921576473826</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1988079484465187</v>
+        <v>0.1823264393816054</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.4874540204996843</v>
+        <v>-0.5157259043946771</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.1215138507286338</v>
+        <v>-0.08337971458875307</v>
       </c>
     </row>
     <row r="19">
@@ -1109,7 +1109,7 @@
         <v>-6.585590183853071</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-4.195264344244586</v>
+        <v>-4.195264344244588</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.1438178567879463</v>
@@ -1121,7 +1121,7 @@
         <v>-0.3292774707686715</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.3361781397798618</v>
+        <v>-0.3361781397798619</v>
       </c>
     </row>
     <row r="20">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-8.483897955680659</v>
+        <v>-7.564324841870472</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-9.499280508054987</v>
+        <v>-9.576689347182441</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-11.93471021913646</v>
+        <v>-12.49401754295568</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-7.146867674682916</v>
+        <v>-7.913550995859047</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4077818559094474</v>
+        <v>-0.369957659247887</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5265356888009453</v>
+        <v>-0.5357336244527799</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5180077051357141</v>
+        <v>-0.5320934470188654</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5060861128065232</v>
+        <v>-0.5273964613282083</v>
       </c>
     </row>
     <row r="21">
@@ -1164,28 +1164,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.929630240403879</v>
+        <v>3.786667482656446</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9183056214053745</v>
+        <v>0.8529209785468237</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-0.3965073271132507</v>
+        <v>-1.1766168250855</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-0.9069996484916768</v>
+        <v>-0.7913007443047021</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1945669442829897</v>
+        <v>0.2998168404440729</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1110462950806225</v>
+        <v>0.08937337613819857</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.007650315264227036</v>
+        <v>-0.06436511020624047</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.07967789917757116</v>
+        <v>-0.06489205710340762</v>
       </c>
     </row>
     <row r="22">
@@ -1209,7 +1209,7 @@
         <v>0.7704767578378069</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1006700461847393</v>
+        <v>0.1006700461847448</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.2621484848633651</v>
@@ -1221,7 +1221,7 @@
         <v>0.03220001845356197</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.004117050598273788</v>
+        <v>0.004117050598274015</v>
       </c>
     </row>
     <row r="23">
@@ -1232,28 +1232,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-16.02595875415657</v>
+        <v>-15.33349892848807</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-15.0720266297305</v>
+        <v>-14.83370638613891</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.122876178464515</v>
+        <v>-6.674374105889978</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.490515352796859</v>
+        <v>-4.852937769791643</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.4508816902160553</v>
+        <v>-0.4448042176821561</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.4298650994016812</v>
+        <v>-0.4305196258892708</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.2305541219260199</v>
+        <v>-0.2448891114846941</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1957310488433294</v>
+        <v>-0.1744292862167656</v>
       </c>
     </row>
     <row r="24">
@@ -1264,28 +1264,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.529059063125956</v>
+        <v>0.07895147626569216</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.1672728206936533</v>
+        <v>0.8357185796205282</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.406087075423505</v>
+        <v>7.218714851556393</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.676586860925701</v>
+        <v>5.186059576317213</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.01261121200828726</v>
+        <v>0.003588439999291765</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.00628713555498618</v>
+        <v>0.04017655826292441</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.374085034467097</v>
+        <v>0.3502572624713535</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2279553583053901</v>
+        <v>0.2471538785711898</v>
       </c>
     </row>
     <row r="25">
@@ -1309,7 +1309,7 @@
         <v>-0.5953590561482327</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-0.4545093717036646</v>
+        <v>-0.4545093717036659</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.02173103653289409</v>
@@ -1321,7 +1321,7 @@
         <v>-0.09950053143951215</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.07859759416490993</v>
+        <v>-0.07859759416491016</v>
       </c>
     </row>
     <row r="26">
@@ -1332,28 +1332,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.292465212399342</v>
+        <v>-1.152316306137143</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.568350449874599</v>
+        <v>-1.57155672387683</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.664925701464807</v>
+        <v>-1.782880033870968</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.376878866913052</v>
+        <v>-1.339568351675302</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2117236443949928</v>
+        <v>-0.1952455834398235</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2673566855544878</v>
+        <v>-0.2560139555682331</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2518679517315889</v>
+        <v>-0.2741096695318161</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2194445414180947</v>
+        <v>-0.2115865968964917</v>
       </c>
     </row>
     <row r="27">
@@ -1364,28 +1364,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9639823668222025</v>
+        <v>1.028164217646398</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5312706113178727</v>
+        <v>0.664742418935293</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.4589278604347778</v>
+        <v>0.4659171060602457</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.5418725420032124</v>
+        <v>0.585119128317701</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2079160524783315</v>
+        <v>0.2117839691920952</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1073192933219721</v>
+        <v>0.1437650220822528</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08900102158032649</v>
+        <v>0.09487923807465848</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1037359580234681</v>
+        <v>0.1140488360999135</v>
       </c>
     </row>
     <row r="28">
